--- a/results/CNN_2layers_adaptive_avgpool=2/sfcc_CNN_2layers_adaptive_avgpool_2_PLV.xlsx
+++ b/results/CNN_2layers_adaptive_avgpool=2/sfcc_CNN_2layers_adaptive_avgpool_2_PLV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_avgpool=2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF0A296-DA9E-48FF-B728-08D9F5C6D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1AD61B-AEF1-4410-811A-1EA21FAB6C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,6 +201,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
